--- a/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,87 +479,87 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1001.fa</t>
+          <t>even_MAG-GUT1000.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09323680551831222</v>
+        <v>0.03521400302275746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3749865969811013</v>
+        <v>0.5989408111222206</v>
       </c>
       <c r="D2" t="n">
-        <v>4.472048641201516e-14</v>
+        <v>5.152678152796538e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5317765975005418</v>
+        <v>0.3658451858549704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5317765975005418</v>
+        <v>0.5989408111222206</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1054.fa</t>
+          <t>even_MAG-GUT1001.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0748031644825123</v>
+        <v>0.09323680551831222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4743038789312174</v>
+        <v>0.3749865969811013</v>
       </c>
       <c r="D3" t="n">
-        <v>4.792756120905253e-14</v>
+        <v>4.472048641201516e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4508929565862224</v>
+        <v>0.5317765975005418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4743038789312174</v>
+        <v>0.5317765975005418</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1059.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09867718438687734</v>
+        <v>0.05544926511923102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3933466053292632</v>
+        <v>0.459070627408474</v>
       </c>
       <c r="D4" t="n">
-        <v>4.631795932414818e-14</v>
+        <v>3.847718333893105e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5079762102838131</v>
+        <v>0.4854801074722566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5079762102838131</v>
+        <v>0.4854801074722566</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,23 +575,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT1033.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1620140317461382</v>
+        <v>0.06296974017852716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3302672485304502</v>
+        <v>0.4380349297278268</v>
       </c>
       <c r="D5" t="n">
-        <v>4.595037300318061e-14</v>
+        <v>4.283430659233435e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5077187197233657</v>
+        <v>0.4989953300936031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5077187197233657</v>
+        <v>0.4989953300936031</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,55 +607,55 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT1054.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1375363962739828</v>
+        <v>0.0748031644825123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3228334007530178</v>
+        <v>0.4743038789312174</v>
       </c>
       <c r="D6" t="n">
-        <v>4.484441004368766e-14</v>
+        <v>4.792756120905253e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5396302029729545</v>
+        <v>0.4508929565862224</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5396302029729545</v>
+        <v>0.4743038789312174</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT1059.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05831399298157932</v>
+        <v>0.09867718438687734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4042841417560237</v>
+        <v>0.3933466053292632</v>
       </c>
       <c r="D7" t="n">
-        <v>4.377267993931789e-14</v>
+        <v>4.631795932414818e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5374018652623531</v>
+        <v>0.5079762102838131</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5374018652623531</v>
+        <v>0.5079762102838131</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,55 +671,55 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04741158490647336</v>
+        <v>0.1620140317461382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4985347707609031</v>
+        <v>0.3302672485304502</v>
       </c>
       <c r="D8" t="n">
-        <v>4.363225281609799e-14</v>
+        <v>4.595037300318061e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45405364433258</v>
+        <v>0.5077187197233657</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4985347707609031</v>
+        <v>0.5077187197233657</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.104185788685663</v>
+        <v>0.1375363962739828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4046217138590668</v>
+        <v>0.3228334007530178</v>
       </c>
       <c r="D9" t="n">
-        <v>4.347416882233835e-14</v>
+        <v>4.484441004368766e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4911924974552269</v>
+        <v>0.5396302029729545</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4911924974552269</v>
+        <v>0.5396302029729545</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT1122.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07474908381844171</v>
+        <v>0.05831399298157932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4336448750357517</v>
+        <v>0.4042841417560237</v>
       </c>
       <c r="D10" t="n">
-        <v>4.572470074938221e-14</v>
+        <v>4.377267993931789e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.491606041145761</v>
+        <v>0.5374018652623531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.491606041145761</v>
+        <v>0.5374018652623531</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,87 +767,87 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1128.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1151092950062943</v>
+        <v>0.04741158490647336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3858119816617971</v>
+        <v>0.4985347707609031</v>
       </c>
       <c r="D11" t="n">
-        <v>4.448643207338129e-14</v>
+        <v>4.363225281609799e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4990787233318641</v>
+        <v>0.45405364433258</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4990787233318641</v>
+        <v>0.4985347707609031</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03603775697204293</v>
+        <v>0.104185788685663</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5070543635230034</v>
+        <v>0.4046217138590668</v>
       </c>
       <c r="D12" t="n">
-        <v>4.334450607090124e-14</v>
+        <v>4.347416882233835e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4569078795049104</v>
+        <v>0.4911924974552269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5070543635230034</v>
+        <v>0.4911924974552269</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT1133.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09196915504708311</v>
+        <v>0.07474908381844171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3782976819962864</v>
+        <v>0.4336448750357517</v>
       </c>
       <c r="D13" t="n">
-        <v>4.230377838239335e-14</v>
+        <v>4.572470074938221e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5297331629565881</v>
+        <v>0.491606041145761</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5297331629565881</v>
+        <v>0.491606041145761</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1185296349260424</v>
+        <v>0.1151092950062943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3535915596638421</v>
+        <v>0.3858119816617971</v>
       </c>
       <c r="D14" t="n">
-        <v>4.328039648394335e-14</v>
+        <v>4.448643207338129e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5278788054100724</v>
+        <v>0.4990787233318641</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5278788054100724</v>
+        <v>0.4990787233318641</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,55 +895,55 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07355447372389921</v>
+        <v>0.03603775697204293</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4070551008398636</v>
+        <v>0.5070543635230034</v>
       </c>
       <c r="D15" t="n">
-        <v>4.281590412002689e-14</v>
+        <v>4.334450607090124e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5193904254361944</v>
+        <v>0.4569078795049104</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5193904254361944</v>
+        <v>0.5070543635230034</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT1143.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07846591346075148</v>
+        <v>0.09196915504708311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4552365990783465</v>
+        <v>0.3782976819962864</v>
       </c>
       <c r="D16" t="n">
-        <v>4.670128806007728e-14</v>
+        <v>4.230377838239335e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4662974874608553</v>
+        <v>0.5297331629565881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4662974874608553</v>
+        <v>0.5297331629565881</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT1149.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06617962887409097</v>
+        <v>0.1185296349260424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4554376662242716</v>
+        <v>0.3535915596638421</v>
       </c>
       <c r="D17" t="n">
-        <v>4.500553829357586e-14</v>
+        <v>4.328039648394335e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4783827049015923</v>
+        <v>0.5278788054100724</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4783827049015923</v>
+        <v>0.5278788054100724</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0663265125387265</v>
+        <v>0.07355447372389921</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4557647312606064</v>
+        <v>0.4070551008398636</v>
       </c>
       <c r="D18" t="n">
-        <v>4.583198206319418e-14</v>
+        <v>4.281590412002689e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4779087562006211</v>
+        <v>0.5193904254361944</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4779087562006211</v>
+        <v>0.5193904254361944</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,23 +1023,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1275289997612528</v>
+        <v>0.07846591346075148</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3573756206401353</v>
+        <v>0.4552365990783465</v>
       </c>
       <c r="D19" t="n">
-        <v>4.645841761128864e-14</v>
+        <v>4.670128806007728e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5150953795985654</v>
+        <v>0.4662974874608553</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5150953795985654</v>
+        <v>0.4662974874608553</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,23 +1055,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.103272455424839</v>
+        <v>0.06617962887409097</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3936106911692304</v>
+        <v>0.4554376662242716</v>
       </c>
       <c r="D20" t="n">
-        <v>4.533060800847117e-14</v>
+        <v>4.500553829357586e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5031168534058852</v>
+        <v>0.4783827049015923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5031168534058852</v>
+        <v>0.4783827049015923</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1087,23 +1087,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08003680095429862</v>
+        <v>0.0663265125387265</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4066167126062161</v>
+        <v>0.4557647312606064</v>
       </c>
       <c r="D21" t="n">
-        <v>4.216269118313584e-14</v>
+        <v>4.583198206319418e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5133464864394431</v>
+        <v>0.4779087562006211</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5133464864394431</v>
+        <v>0.4779087562006211</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1075782064003042</v>
+        <v>0.1275289997612528</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3609229968495633</v>
+        <v>0.3573756206401353</v>
       </c>
       <c r="D22" t="n">
-        <v>4.32752960590584e-14</v>
+        <v>4.645841761128864e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5314987967500892</v>
+        <v>0.5150953795985654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5314987967500892</v>
+        <v>0.5150953795985654</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,55 +1151,55 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0355420901762436</v>
+        <v>0.103272455424839</v>
       </c>
       <c r="C23" t="n">
-        <v>0.685997171268279</v>
+        <v>0.3936106911692304</v>
       </c>
       <c r="D23" t="n">
-        <v>6.132314147049082e-14</v>
+        <v>4.533060800847117e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.278460738555416</v>
+        <v>0.5031168534058852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.685997171268279</v>
+        <v>0.5031168534058852</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.141940009789766</v>
+        <v>0.08003680095429862</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3176221018520923</v>
+        <v>0.4066167126062161</v>
       </c>
       <c r="D24" t="n">
-        <v>4.180954780396988e-14</v>
+        <v>4.216269118313584e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5404378883580999</v>
+        <v>0.5133464864394431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5404378883580999</v>
+        <v>0.5133464864394431</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,23 +1215,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1077261394102722</v>
+        <v>0.1075782064003042</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3331394477046364</v>
+        <v>0.3609229968495633</v>
       </c>
       <c r="D25" t="n">
-        <v>4.105463823685521e-14</v>
+        <v>4.32752960590584e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5591344128850502</v>
+        <v>0.5314987967500892</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5591344128850502</v>
+        <v>0.5314987967500892</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1247,55 +1247,55 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2041498115560957</v>
+        <v>0.0355420901762436</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2683345043811193</v>
+        <v>0.685997171268279</v>
       </c>
       <c r="D26" t="n">
-        <v>4.024400461327364e-14</v>
+        <v>6.132314147049082e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5275156840627448</v>
+        <v>0.278460738555416</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5275156840627448</v>
+        <v>0.685997171268279</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08995043820462706</v>
+        <v>0.141940009789766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3615005826493195</v>
+        <v>0.3176221018520923</v>
       </c>
       <c r="D27" t="n">
-        <v>4.082354625182156e-14</v>
+        <v>4.180954780396988e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5485489791460126</v>
+        <v>0.5404378883580999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5485489791460126</v>
+        <v>0.5404378883580999</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,55 +1311,55 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04804590957433486</v>
+        <v>0.1077261394102722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5300872976819458</v>
+        <v>0.3331394477046364</v>
       </c>
       <c r="D28" t="n">
-        <v>4.589367503492662e-14</v>
+        <v>4.105463823685521e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4218667927436733</v>
+        <v>0.5591344128850502</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5300872976819458</v>
+        <v>0.5591344128850502</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09254897275718658</v>
+        <v>0.2041498115560957</v>
       </c>
       <c r="C29" t="n">
-        <v>0.39034199392786</v>
+        <v>0.2683345043811193</v>
       </c>
       <c r="D29" t="n">
-        <v>4.444781210560521e-14</v>
+        <v>4.024400461327364e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.517109033314909</v>
+        <v>0.5275156840627448</v>
       </c>
       <c r="F29" t="n">
-        <v>0.517109033314909</v>
+        <v>0.5275156840627448</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,23 +1375,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1155816547458882</v>
+        <v>0.08995043820462706</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3554022845738706</v>
+        <v>0.3615005826493195</v>
       </c>
       <c r="D30" t="n">
-        <v>4.326702573016144e-14</v>
+        <v>4.082354625182156e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5290160606801978</v>
+        <v>0.5485489791460126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5290160606801978</v>
+        <v>0.5485489791460126</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1407,55 +1407,55 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09774994990650814</v>
+        <v>0.04804590957433486</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3603239736751717</v>
+        <v>0.5300872976819458</v>
       </c>
       <c r="D31" t="n">
-        <v>4.187929121656836e-14</v>
+        <v>4.589367503492662e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5419260764182782</v>
+        <v>0.4218667927436733</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5419260764182782</v>
+        <v>0.5300872976819458</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.09305940772165128</v>
+        <v>0.09254897275718658</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3715641799297328</v>
+        <v>0.39034199392786</v>
       </c>
       <c r="D32" t="n">
-        <v>4.398670414691634e-14</v>
+        <v>4.444781210560521e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5353764123485719</v>
+        <v>0.517109033314909</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5353764123485719</v>
+        <v>0.517109033314909</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1471,23 +1471,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06330910983541825</v>
+        <v>0.1155816547458882</v>
       </c>
       <c r="C33" t="n">
-        <v>0.443390720115609</v>
+        <v>0.3554022845738706</v>
       </c>
       <c r="D33" t="n">
-        <v>4.635501554299711e-14</v>
+        <v>4.326702573016144e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4933001700489264</v>
+        <v>0.5290160606801978</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4933001700489264</v>
+        <v>0.5290160606801978</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1132024665515984</v>
+        <v>0.09774994990650814</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3873158683759733</v>
+        <v>0.3603239736751717</v>
       </c>
       <c r="D34" t="n">
-        <v>4.670234334035079e-14</v>
+        <v>4.187929121656836e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4994816650723816</v>
+        <v>0.5419260764182782</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4994816650723816</v>
+        <v>0.5419260764182782</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1535,23 +1535,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0963618408517454</v>
+        <v>0.09305940772165128</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4058415544287071</v>
+        <v>0.3715641799297328</v>
       </c>
       <c r="D35" t="n">
-        <v>4.400586454826145e-14</v>
+        <v>4.398670414691634e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4977966047195036</v>
+        <v>0.5353764123485719</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4977966047195036</v>
+        <v>0.5353764123485719</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1364814445985641</v>
+        <v>0.06330910983541825</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3629210487972361</v>
+        <v>0.443390720115609</v>
       </c>
       <c r="D36" t="n">
-        <v>4.564406041617209e-14</v>
+        <v>4.635501554299711e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5005975066041541</v>
+        <v>0.4933001700489264</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5005975066041541</v>
+        <v>0.4933001700489264</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1261393582193744</v>
+        <v>0.1132024665515984</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3147856015960177</v>
+        <v>0.3873158683759733</v>
       </c>
       <c r="D37" t="n">
-        <v>4.275767914030093e-14</v>
+        <v>4.670234334035079e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5590750401845651</v>
+        <v>0.4994816650723816</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5590750401845651</v>
+        <v>0.4994816650723816</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1631,87 +1631,87 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02872847741795193</v>
+        <v>0.0963618408517454</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6998463762043828</v>
+        <v>0.4058415544287071</v>
       </c>
       <c r="D38" t="n">
-        <v>5.94595611206128e-14</v>
+        <v>4.400586454826145e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2714251463776058</v>
+        <v>0.4977966047195036</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6998463762043828</v>
+        <v>0.4977966047195036</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05549868283426795</v>
+        <v>0.1364814445985641</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6991350410311481</v>
+        <v>0.3629210487972361</v>
       </c>
       <c r="D39" t="n">
-        <v>6.048585265937952e-14</v>
+        <v>4.564406041617209e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2453662761345234</v>
+        <v>0.5005975066041541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6991350410311481</v>
+        <v>0.5005975066041541</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1119725018629894</v>
+        <v>0.1261393582193744</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3446125833701882</v>
+        <v>0.3147856015960177</v>
       </c>
       <c r="D40" t="n">
-        <v>4.297268124218657e-14</v>
+        <v>4.275767914030093e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5434149147667795</v>
+        <v>0.5590750401845651</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5434149147667795</v>
+        <v>0.5590750401845651</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1727,87 +1727,87 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.07934542319768213</v>
+        <v>0.02872847741795193</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4117894914688024</v>
+        <v>0.6998463762043828</v>
       </c>
       <c r="D41" t="n">
-        <v>4.428582733673252e-14</v>
+        <v>5.94595611206128e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5088650853334713</v>
+        <v>0.2714251463776058</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5088650853334713</v>
+        <v>0.6998463762043828</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06322852035896541</v>
+        <v>0.05549868283426795</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4490941350849149</v>
+        <v>0.6991350410311481</v>
       </c>
       <c r="D42" t="n">
-        <v>4.093808815146847e-14</v>
+        <v>6.048585265937952e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4876773445560788</v>
+        <v>0.2453662761345234</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4876773445560788</v>
+        <v>0.6991350410311481</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05185545503080207</v>
+        <v>0.1306788843724542</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4699686866150092</v>
+        <v>0.308144152445891</v>
       </c>
       <c r="D43" t="n">
-        <v>4.453608104679124e-14</v>
+        <v>3.897896245029579e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4781758583541441</v>
+        <v>0.5611769631816159</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4781758583541441</v>
+        <v>0.5611769631816159</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1823,23 +1823,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09733416175531326</v>
+        <v>0.1119725018629894</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3483034354510326</v>
+        <v>0.3446125833701882</v>
       </c>
       <c r="D44" t="n">
-        <v>4.065063942384053e-14</v>
+        <v>4.297268124218657e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5543624027936134</v>
+        <v>0.5434149147667795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5543624027936134</v>
+        <v>0.5434149147667795</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1855,23 +1855,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1457696883661069</v>
+        <v>0.07934542319768213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291146982783139</v>
+        <v>0.4117894914688024</v>
       </c>
       <c r="D45" t="n">
-        <v>4.279433994906407e-14</v>
+        <v>4.428582733673252e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5630833288507113</v>
+        <v>0.5088650853334713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5630833288507113</v>
+        <v>0.5088650853334713</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1887,55 +1887,55 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.03903031963378534</v>
+        <v>0.06322852035896541</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4961153107550023</v>
+        <v>0.4490941350849149</v>
       </c>
       <c r="D46" t="n">
-        <v>4.202468181820629e-14</v>
+        <v>4.093808815146847e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4648543696111703</v>
+        <v>0.4876773445560788</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4961153107550023</v>
+        <v>0.4876773445560788</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.08307158951472421</v>
+        <v>0.05185545503080207</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4260274873685895</v>
+        <v>0.4699686866150092</v>
       </c>
       <c r="D47" t="n">
-        <v>4.398251226463006e-14</v>
+        <v>4.453608104679124e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4909009231166424</v>
+        <v>0.4781758583541441</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4909009231166424</v>
+        <v>0.4781758583541441</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1951,55 +1951,55 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04177249232575387</v>
+        <v>0.09733416175531326</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4833079149240862</v>
+        <v>0.3483034354510326</v>
       </c>
       <c r="D48" t="n">
-        <v>4.39551491764169e-14</v>
+        <v>4.065063942384053e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.474919592750116</v>
+        <v>0.5543624027936134</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4833079149240862</v>
+        <v>0.5543624027936134</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>g__Cutibacterium(reject)</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1070565969474042</v>
+        <v>0.1457696883661069</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4140553324726537</v>
+        <v>0.291146982783139</v>
       </c>
       <c r="D49" t="n">
-        <v>4.366118277786123e-14</v>
+        <v>4.279433994906407e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4788880705798985</v>
+        <v>0.5630833288507113</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4788880705798985</v>
+        <v>0.5630833288507113</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2015,23 +2015,23 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.111706107758848</v>
+        <v>0.0753190159556938</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3777144595401309</v>
+        <v>0.3721602322634853</v>
       </c>
       <c r="D50" t="n">
-        <v>4.198978370015884e-14</v>
+        <v>3.824309427123386e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.5525207517807826</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.5525207517807826</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2047,55 +2047,55 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.111706107758848</v>
+        <v>0.03903031963378534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3777144595401309</v>
+        <v>0.4961153107550023</v>
       </c>
       <c r="D51" t="n">
-        <v>4.198978370015884e-14</v>
+        <v>4.202468181820629e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.4648543696111703</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.4961153107550023</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.111706107758848</v>
+        <v>0.08307158951472421</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3777144595401309</v>
+        <v>0.4260274873685895</v>
       </c>
       <c r="D52" t="n">
-        <v>4.198978370015884e-14</v>
+        <v>4.398251226463006e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.4909009231166424</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5105794327009792</v>
+        <v>0.4909009231166424</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,55 +2111,55 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.02590966928974817</v>
+        <v>0.04177249232575387</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0780252812492407</v>
+        <v>0.4833079149240862</v>
       </c>
       <c r="D53" t="n">
-        <v>2.830343026128938e-14</v>
+        <v>4.39551491764169e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8960650494609828</v>
+        <v>0.474919592750116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8960650494609828</v>
+        <v>0.4833079149240862</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium(reject)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.08933265223841547</v>
+        <v>0.1070565969474042</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3817254758559451</v>
+        <v>0.4140553324726537</v>
       </c>
       <c r="D54" t="n">
-        <v>4.389647750079789e-14</v>
+        <v>4.366118277786123e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5289418719055954</v>
+        <v>0.4788880705798985</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5289418719055954</v>
+        <v>0.4788880705798985</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2175,23 +2175,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91528.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.129023116346789</v>
+        <v>0.111706107758848</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3370149852930525</v>
+        <v>0.3777144595401309</v>
       </c>
       <c r="D55" t="n">
-        <v>4.446987094426463e-14</v>
+        <v>4.198978370015884e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.533961898360114</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="F55" t="n">
-        <v>0.533961898360114</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91549.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1269501706234332</v>
+        <v>0.111706107758848</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3675828411004722</v>
+        <v>0.3777144595401309</v>
       </c>
       <c r="D56" t="n">
-        <v>4.479068303767133e-14</v>
+        <v>4.198978370015884e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5054669882760497</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5054669882760497</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,23 +2239,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91835.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1087858662640528</v>
+        <v>0.09243607723835379</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3603281610346948</v>
+        <v>0.393804927157767</v>
       </c>
       <c r="D57" t="n">
-        <v>4.360432781947009e-14</v>
+        <v>4.216562214387549e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5308859727012087</v>
+        <v>0.513758995603837</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5308859727012087</v>
+        <v>0.513758995603837</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2271,23 +2271,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91865.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.09909618828134759</v>
+        <v>0.111706107758848</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3434657656209328</v>
+        <v>0.3777144595401309</v>
       </c>
       <c r="D58" t="n">
-        <v>4.023334398134964e-14</v>
+        <v>4.198978370015884e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5574380460976793</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5574380460976793</v>
+        <v>0.5105794327009792</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2303,23 +2303,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92079.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1073281727326694</v>
+        <v>0.09243607723835379</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3782570279176835</v>
+        <v>0.393804927157767</v>
       </c>
       <c r="D59" t="n">
-        <v>4.502782452127258e-14</v>
+        <v>4.216562214387549e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5144147993496022</v>
+        <v>0.513758995603837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5144147993496022</v>
+        <v>0.513758995603837</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2335,23 +2335,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92127.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1240501879002843</v>
+        <v>0.02590966928974817</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3708843805168739</v>
+        <v>0.0780252812492407</v>
       </c>
       <c r="D60" t="n">
-        <v>4.409635258865892e-14</v>
+        <v>2.830343026128938e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5050654315827977</v>
+        <v>0.8960650494609828</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5050654315827977</v>
+        <v>0.8960650494609828</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2360,37 +2360,261 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>g__Propionibacterium(reject)</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91259.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.08933265223841547</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.3817254758559451</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.389647750079789e-14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5289418719055954</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5289418719055954</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91528.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.129023116346789</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3370149852930525</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.446987094426463e-14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.533961898360114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.533961898360114</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91549.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1269501706234332</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3675828411004722</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.479068303767133e-14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5054669882760497</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5054669882760497</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91835.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1087858662640528</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3603281610346948</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.360432781947009e-14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5308859727012087</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5308859727012087</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91865.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.09909618828134759</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3434657656209328</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.023334398134964e-14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5574380460976793</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5574380460976793</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92079.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1073281727326694</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.3782570279176835</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.502782452127258e-14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5144147993496022</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5144147993496022</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92127.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1240501879002843</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.3708843805168739</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.409635258865892e-14</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5050654315827977</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5050654315827977</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B68" t="n">
         <v>0.09652722876009394</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C68" t="n">
         <v>0.418170517146392</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D68" t="n">
         <v>4.581653412222735e-14</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E68" t="n">
         <v>0.4853022540934683</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F68" t="n">
         <v>0.4853022540934683</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>g__Propionibacterium(reject)</t>
         </is>

--- a/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>g__Cutibacterium</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>g__Cutibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>g__Propionibacterium</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2331,6 +2676,11 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>g__Propionibacterium</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Propionibacteriaceae.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Propionibacterium(reject)</t>
         </is>
       </c>
     </row>
